--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>测试详情</t>
   </si>
@@ -43,76 +43,43 @@
     <t xml:space="preserve">是否通过 </t>
   </si>
   <si>
-    <t>192.168.0.101:9999/api/add</t>
+    <t>192.210.206.201:8000/myapi/get_shop_list</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>得到列表</t>
+  </si>
+  <si>
+    <t>"msg":"success"</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>{"code": 1, "msg": "success", "data": [{"id": 0, "name": "\u624b\u673a0", "price": 100}, {"id": 1, "name": "\u624b\u673a1", "price": 101}, {"id": 2, "name": "\u624b\u673a2", "price": 102}, {"id": 3, "name": "\u624b\u673a3", "price": 103}, {"id": 4, "name": "\u624b\u673a4", "price": 104}, {"id": 5, "name": "\u624b\u673a5", "price": 105}, {"id": 6, "name": "\u624b\u673a6", "price": 106}, {"id": 7, "name": "\u624b\u673a7", "price": 107}, {"id": 8, "name": "\u624b\u673a8", "price": 108}, {"id": 9, "name": "\u624b\u673a9", "price": 109}]}</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>192.210.206.201:8000/myapi/shop_add</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{'token': 'a577b110-6b94-11e8-b4b5-bc5ff48e988d', 'name': '[]'}</t>
-  </si>
-  <si>
-    <t>新增_token参数错误,id删除参数,name参数错误,</t>
-  </si>
-  <si>
-    <t>{"id": 7}</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>{"code":100, "id":123}</t>
-  </si>
-  <si>
-    <t>{'token': 'a577b110-6b94-11e8-b4b5-bc5ff48e988d', 'id': 'a61049ca-6b94-11e8-b359-bc5ff48e988d'}</t>
-  </si>
-  <si>
-    <t>新增_token参数错误,id参数错误,name删除参数,</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>新增_token删除参数,id删除参数,name删除参数,</t>
-  </si>
-  <si>
-    <t>{'id': 'a61049ca-6b94-11e8-b359-bc5ff48e988d', 'name': '[]'}</t>
-  </si>
-  <si>
-    <t>新增_token删除参数,id参数错误,name参数错误,</t>
-  </si>
-  <si>
-    <t>{'token': 'aasss', 'id': '101', 'name': ['test1', 'test2', 'test3']}</t>
-  </si>
-  <si>
-    <t>新增_全部参数正确</t>
-  </si>
-  <si>
-    <t>192.168.0.101:9999/api/list</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{'id': 'a88571b0-6b94-11e8-bdc1-bc5ff48e988d'}</t>
-  </si>
-  <si>
-    <t>得到列表_id参数错误,</t>
-  </si>
-  <si>
-    <t>{"code":"1001"}</t>
-  </si>
-  <si>
-    <t>{"id": "123", "data":[{"code":"1001","error":"2008"},{"code":"1002","error":"2009"}],"name":1111}</t>
-  </si>
-  <si>
-    <t>得到列表_id删除参数,</t>
-  </si>
-  <si>
-    <t>{'id': '123'}</t>
-  </si>
-  <si>
-    <t>得到列表_全部参数正确</t>
+    <t>{"name": "123","price":100,"address":"222"}</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>"code":1|"msg":"success"</t>
+  </si>
+  <si>
+    <t>{"code": 1, "msg": "success"}</t>
   </si>
 </sst>
 </file>
@@ -479,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,191 +507,54 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1"/>
+    <row r="6" spans="1:8" ht="30" customHeight="1"/>
+    <row r="7" spans="1:8" ht="30" customHeight="1"/>
+    <row r="8" spans="1:8" ht="30" customHeight="1"/>
+    <row r="9" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
